--- a/CheckLists/Gregory_AllForCars.xlsx
+++ b/CheckLists/Gregory_AllForCars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Check List for "Все для авто"</t>
   </si>
@@ -31,18 +31,66 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Check List for auto.ria.ua (globals)</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Secure connection (valid SSL certificate)</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>valid until 18-10-20222</t>
+  </si>
+  <si>
+    <t>Cookies usage notification</t>
+  </si>
+  <si>
+    <t>Errors in console</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>404 for https://auto.ria.com/page_down_plate/4/main_page.html</t>
+  </si>
+  <si>
+    <t>Rasponsive Layout Breakpoints (homepage)</t>
+  </si>
+  <si>
+    <t>1380px width: smaller side banners
+978px width: side banners are hidden
+976px width: horizontal scroll appeared
+768px width: horizontal scroll disappeared, mobile layout turn-on
+325px width: minimal width without horizontal scroll</t>
+  </si>
+  <si>
+    <t>Lack of info</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -63,16 +111,55 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -95,20 +182,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -386,305 +529,636 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/CheckLists/Gregory_AllForCars.xlsx
+++ b/CheckLists/Gregory_AllForCars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Check List for "Все для авто"</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>404 for https://auto.ria.com/page_down_plate/4/main_page.html</t>
-  </si>
-  <si>
-    <t>Rasponsive Layout Breakpoints (homepage)</t>
   </si>
   <si>
     <t>1380px width: smaller side banners
@@ -72,17 +69,37 @@
   <si>
     <t>Lack of info</t>
   </si>
+  <si>
+    <t>Responsive Layout Breakpoints (homepage)</t>
+  </si>
+  <si>
+    <t>Item "Все для авто" displays on main menu</t>
+  </si>
+  <si>
+    <t>Dropdown-menu displays on mousehover</t>
+  </si>
+  <si>
+    <t>All links in dropdown-menu are valid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,30 +239,31 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -253,7 +271,38 @@
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -529,25 +578,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="61.5703125" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -561,605 +610,355 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$B$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>$B$5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/CheckLists/Gregory_AllForCars.xlsx
+++ b/CheckLists/Gregory_AllForCars.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>Check List for "Все для авто"</t>
-  </si>
-  <si>
-    <t>Action</t>
   </si>
   <si>
     <t>Status</t>
@@ -73,20 +70,228 @@
     <t>Responsive Layout Breakpoints (homepage)</t>
   </si>
   <si>
-    <t>Item "Все для авто" displays on main menu</t>
-  </si>
-  <si>
-    <t>Dropdown-menu displays on mousehover</t>
-  </si>
-  <si>
-    <t>All links in dropdown-menu are valid</t>
+    <t>Item "Все для авто" displayed in main menu</t>
+  </si>
+  <si>
+    <t>Dropdown-menu displayed on mousehover</t>
+  </si>
+  <si>
+    <t>All links in menu are valid</t>
+  </si>
+  <si>
+    <t>Click on Item "Все для Авто" redirects to 
+https://auto.ria.com/uk/all_for_auto/?popup=2</t>
+  </si>
+  <si>
+    <t>Next this page called AllForAuto</t>
+  </si>
+  <si>
+    <t>AllForAuto layout check</t>
+  </si>
+  <si>
+    <t>Button "Up" for fast scrolling to top of the page</t>
+  </si>
+  <si>
+    <t>AllForAuto sections icons</t>
+  </si>
+  <si>
+    <t>AllForAuto all links are valid</t>
+  </si>
+  <si>
+    <t>Bottom slider controls</t>
+  </si>
+  <si>
+    <t>Links in bottom slider redirects to related pages</t>
+  </si>
+  <si>
+    <t>Bottom slider layout</t>
+  </si>
+  <si>
+    <t>Item "Підібрати" is out of clickable area</t>
+  </si>
+  <si>
+    <t>Dropdown-menu "AllForAuto" item "Каталог СТО" 
+linked to valid page</t>
+  </si>
+  <si>
+    <t>Counter near item displays correct entities count</t>
+  </si>
+  <si>
+    <t>Next this page called STO</t>
+  </si>
+  <si>
+    <t>News provider "Slonik" for side Ads banners always 
+works propertly</t>
+  </si>
+  <si>
+    <t>Need additional stress testing for data provider</t>
+  </si>
+  <si>
+    <t>STO page layout</t>
+  </si>
+  <si>
+    <t>Search bar displays</t>
+  </si>
+  <si>
+    <t>Services types in list is full</t>
+  </si>
+  <si>
+    <t>City list is full</t>
+  </si>
+  <si>
+    <t>Service type search by text</t>
+  </si>
+  <si>
+    <t>City search by text</t>
+  </si>
+  <si>
+    <t>Button "Знайти СТО" redirects to search results</t>
+  </si>
+  <si>
+    <t>div "sto-benefits" (under search  bar) contains three items</t>
+  </si>
+  <si>
+    <t>Item icons</t>
+  </si>
+  <si>
+    <t>Item links redirects to related pages</t>
+  </si>
+  <si>
+    <t>Service Category selector switches a list of services
+ acording to selected category</t>
+  </si>
+  <si>
+    <t>Click on service redirects to search result with selected filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slider of "Feedbacks" displays ordered by date items </t>
+  </si>
+  <si>
+    <t>Feedback slider controlls</t>
+  </si>
+  <si>
+    <t>Feedback slider layout</t>
+  </si>
+  <si>
+    <t>Height of items is different.</t>
+  </si>
+  <si>
+    <t>Promo section contains three items</t>
+  </si>
+  <si>
+    <t>Links in promo section redirects to related pages</t>
+  </si>
+  <si>
+    <t>Promo section layout</t>
+  </si>
+  <si>
+    <t>List of service centers section displayed</t>
+  </si>
+  <si>
+    <t>Order of items in list (Станції технічного
+ обслуговування по регіонах) by alphabet</t>
+  </si>
+  <si>
+    <t>Order of items in list (Станції технічного обслуговування
+ по маркам) by counter</t>
+  </si>
+  <si>
+    <t>All links redirects to serach result with selected filter</t>
+  </si>
+  <si>
+    <t>Button add service station redirects to registration form</t>
+  </si>
+  <si>
+    <t>All items in menu are static and not changes in other pages</t>
+  </si>
+  <si>
+    <t>Dropdown menu item "16 видів перевірок на AUTO.RIA" 
+redirects to related page</t>
+  </si>
+  <si>
+    <t>https://auto.ria.com/uk/perevireno-ludmy/</t>
+  </si>
+  <si>
+    <t>perevireno-ludmy page layout</t>
+  </si>
+  <si>
+    <t>perevireno-ludmy images on page</t>
+  </si>
+  <si>
+    <t>perevireno-ludmy YouTube player with valid video</t>
+  </si>
+  <si>
+    <t>YouTube player is stoped by default</t>
+  </si>
+  <si>
+    <t>Jquery animations on the page</t>
+  </si>
+  <si>
+    <t>All links on the page redirects to related pages</t>
+  </si>
+  <si>
+    <t>Dropdown menu item "Каталог автомийок" redirects to 
+related page</t>
+  </si>
+  <si>
+    <t>Next this page called "Wash"</t>
+  </si>
+  <si>
+    <t>Wash page layout</t>
+  </si>
+  <si>
+    <t>Header has differences between another whole website/
+Item "Все для авто" has not dropdown menu</t>
+  </si>
+  <si>
+    <t>All buttons and links of the page redirects ro related pages</t>
+  </si>
+  <si>
+    <t>Search by name</t>
+  </si>
+  <si>
+    <t>0 results for any requests. E.g. existed "Автомийка Богдан – Авто Чернівці", "Автомийка Богдан", "Автомийка", "Богдан"</t>
+  </si>
+  <si>
+    <t>Search by City</t>
+  </si>
+  <si>
+    <t>Search by type</t>
+  </si>
+  <si>
+    <t>Search results items contents helpful info</t>
+  </si>
+  <si>
+    <t>Search results items has links to company page</t>
+  </si>
+  <si>
+    <t>Search result pagination</t>
+  </si>
+  <si>
+    <t>Search result page "show on map" link redirects to page
+ with google maps</t>
+  </si>
+  <si>
+    <t>Search on the map/Show item on map</t>
+  </si>
+  <si>
+    <t>Search on the map/Open item page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance page </t>
+  </si>
+  <si>
+    <t>No pole on map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is only 5% of coverage… I am tired </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +357,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -176,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -236,14 +458,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -264,14 +549,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Гиперссылка" xfId="4" builtinId="8"/>
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -289,16 +600,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -578,388 +879,907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="69" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C61" s="2"/>
     </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A66:C67"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B65 B68:B1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$B$3</formula>
+      <formula>$B$4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C47" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>